--- a/МСС ПО/1/calc.xlsx
+++ b/МСС ПО/1/calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Workspace\Лабы\lab_materials\МСС ПО\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602D2FA8-687F-4554-A34F-832057DC756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3250543E-FAEB-4434-8F87-5CE1DAAFF47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{2747FEB3-815E-4C08-8A73-9165E42FB5B2}"/>
+    <workbookView xWindow="1668" yWindow="2016" windowWidth="13644" windowHeight="9336" activeTab="1" xr2:uid="{2747FEB3-815E-4C08-8A73-9165E42FB5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача" sheetId="1" r:id="rId1"/>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645007F5-780B-466E-9984-64F755B75335}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1121,8 @@
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3</v>
+        <f>0.3 * 6</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -1153,7 +1154,8 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1875</v>
+        <f>0.1875 * 6</f>
+        <v>1.125</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -1185,7 +1187,8 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3</v>
+        <f>0.3 * 6</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E4" s="1">
         <v>19</v>
@@ -1220,7 +1223,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.26250000000000001</v>
+        <v>1.575</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
@@ -1293,7 +1296,7 @@
       </c>
       <c r="D10">
         <f>D2/B2</f>
-        <v>4.9999999999999996E-2</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
         <f>F2/B2</f>
@@ -1309,7 +1312,7 @@
       </c>
       <c r="K10">
         <f>D13 *F14</f>
-        <v>1.2250054608999563</v>
+        <v>7.350032765399737</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1327,7 +1330,7 @@
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D12" si="4">D3/B3</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E12" si="5">F3/B3</f>
@@ -1353,7 +1356,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="4"/>
-        <v>0.13106159895150721</v>
+        <v>0.78636959370904314</v>
       </c>
       <c r="E12">
         <f t="shared" si="5"/>
@@ -1378,7 +1381,7 @@
       </c>
       <c r="D13">
         <f>AVERAGE(D10:D12)</f>
-        <v>7.4242755206057956E-2</v>
+        <v>0.44545653123634771</v>
       </c>
       <c r="E13">
         <f>AVERAGE(E10:E12)</f>
@@ -1399,7 +1402,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="7"/>
-        <v>0.22272826561817388</v>
+        <v>1.3363695937090432</v>
       </c>
       <c r="E14">
         <f t="shared" si="7"/>
@@ -1468,7 +1471,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="8"/>
-        <v>4.9999999999999996E-2</v>
+        <v>0.3</v>
       </c>
       <c r="E17">
         <f t="shared" si="8"/>
@@ -1492,7 +1495,7 @@
       </c>
       <c r="M17">
         <f>D20*F21</f>
-        <v>1.2250054608999563</v>
+        <v>7.350032765399737</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1510,7 +1513,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="8"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E18">
         <f t="shared" si="8"/>
@@ -1544,7 +1547,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="8"/>
-        <v>0.13106159895150721</v>
+        <v>0.78636959370904314</v>
       </c>
       <c r="E19">
         <f t="shared" si="8"/>
@@ -1555,11 +1558,11 @@
         <v>3.8333333333333335</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" ref="G18:G19" si="9">$B$20 * ($B$5 / F19)</f>
+        <f t="shared" ref="G19" si="9">$B$20 * ($B$5 / F19)</f>
         <v>2.6923625217391303</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" ref="H18:H19" si="10">F19/G19</f>
+        <f t="shared" ref="H19" si="10">F19/G19</f>
         <v>1.4237805282095495</v>
       </c>
     </row>
@@ -1578,7 +1581,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="8"/>
-        <v>7.4242755206057956E-2</v>
+        <v>0.44545653123634771</v>
       </c>
       <c r="E20">
         <f t="shared" si="8"/>
@@ -1611,7 +1614,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="11"/>
-        <v>0.22272826561817388</v>
+        <v>1.3363695937090432</v>
       </c>
       <c r="E21">
         <f t="shared" si="11"/>
